--- a/medicine/Enfance/Charlotte_Gingras/Charlotte_Gingras.xlsx
+++ b/medicine/Enfance/Charlotte_Gingras/Charlotte_Gingras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charlotte Gingras est une romancière québécoise née à Québec, le 10 décembre 1943.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a fait des études en pédagogie et en arts plastiques. Elle a enseigné aux enfants du primaire, elle a animé des ateliers sur la créativité avec les adultes et elle a travaillé comme pigiste dans le milieu des arts visuels.
 Auteure et artiste professionnelle en photographie, elle crée en images et en mots. En même temps qu’elle expose régulièrement dans les galeries, elle mène une carrière d’écrivaine bien remplie. Ses romans pour la jeunesse sont de touchants portraits de la vie quotidienne où l’imaginaire et le mystérieux forment un tout, au grand bonheur des lecteurs.
@@ -543,14 +557,16 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Maison d'éclats, collectif, récit, 1989
 Les Chats d'Aurélie, roman jeunesse, 1994
 L'Île au géant, roman jeunesse, 1995
 La Fabrique de citrouille, roman jeunesse, 1995
 Les Nouveaux Bonheurs, roman jeunesse, 1996
-La Liberté? Connais pas, roman jeunesse, 1998[1]
+La Liberté? Connais pas, roman jeunesse, 1998
 Un été de Jade, roman jeunesse, 1999
 Les Sorts, nouvelles, 1999
 La Fille de la forêt, roman jeunesse, 2002
@@ -589,7 +605,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1999 - Prix du Gouverneur général pour les arts de la scène
 1999 - Prix du Gouverneur général, La Liberté? Connais pas...
